--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Gdf9</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H2">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I2">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J2">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N2">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O2">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P2">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q2">
-        <v>0.06187642129466667</v>
+        <v>0.1170738975896667</v>
       </c>
       <c r="R2">
-        <v>0.556887791652</v>
+        <v>1.053665078307</v>
       </c>
       <c r="S2">
-        <v>0.002017728133796381</v>
+        <v>0.003565294363044173</v>
       </c>
       <c r="T2">
-        <v>0.002017728133796381</v>
+        <v>0.003565294363044174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H3">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I3">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J3">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>12.561996</v>
       </c>
       <c r="O3">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P3">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q3">
-        <v>6.620936777978668</v>
+        <v>6.752534852297334</v>
       </c>
       <c r="R3">
-        <v>59.588431001808</v>
+        <v>60.77281367067599</v>
       </c>
       <c r="S3">
-        <v>0.2159021179553284</v>
+        <v>0.205637421669644</v>
       </c>
       <c r="T3">
-        <v>0.2159021179553284</v>
+        <v>0.205637421669644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -661,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H4">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I4">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J4">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N4">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O4">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P4">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q4">
-        <v>0.4119038823364444</v>
+        <v>0.3529498735095556</v>
       </c>
       <c r="R4">
-        <v>3.707134941027999</v>
+        <v>3.176548861586</v>
       </c>
       <c r="S4">
-        <v>0.01343177311196299</v>
+        <v>0.0107485120113729</v>
       </c>
       <c r="T4">
-        <v>0.01343177311196299</v>
+        <v>0.0107485120113729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,40 +732,40 @@
         <v>13.129937</v>
       </c>
       <c r="I5">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J5">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N5">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O5">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P5">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q5">
-        <v>0.1712712748736667</v>
+        <v>0.3177400987543334</v>
       </c>
       <c r="R5">
-        <v>1.541441473863</v>
+        <v>2.859660888789</v>
       </c>
       <c r="S5">
-        <v>0.0055849847582177</v>
+        <v>0.009676255820681856</v>
       </c>
       <c r="T5">
-        <v>0.005584984758217701</v>
+        <v>0.009676255820681857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,10 +794,10 @@
         <v>13.129937</v>
       </c>
       <c r="I6">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J6">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +812,10 @@
         <v>12.561996</v>
       </c>
       <c r="O6">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P6">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q6">
         <v>18.32646845269467</v>
@@ -821,10 +824,10 @@
         <v>164.938216074252</v>
       </c>
       <c r="S6">
-        <v>0.5976077836505568</v>
+        <v>0.5581026686060055</v>
       </c>
       <c r="T6">
-        <v>0.5976077836505568</v>
+        <v>0.5581026686060055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -853,10 +856,10 @@
         <v>13.129937</v>
       </c>
       <c r="I7">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J7">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N7">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O7">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P7">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q7">
-        <v>1.140132243867444</v>
+        <v>0.9579106015357779</v>
       </c>
       <c r="R7">
-        <v>10.261190194807</v>
+        <v>8.621195413822001</v>
       </c>
       <c r="S7">
-        <v>0.03717857071507825</v>
+        <v>0.02917160304960413</v>
       </c>
       <c r="T7">
-        <v>0.03717857071507826</v>
+        <v>0.02917160304960413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H8">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I8">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J8">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N8">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O8">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P8">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q8">
-        <v>0.01490048978933333</v>
+        <v>0.01053902743233334</v>
       </c>
       <c r="R8">
-        <v>0.134104408104</v>
+        <v>0.094851246891</v>
       </c>
       <c r="S8">
-        <v>0.0004858900503005495</v>
+        <v>0.0003209488696460928</v>
       </c>
       <c r="T8">
-        <v>0.0004858900503005495</v>
+        <v>0.0003209488696460928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +959,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H9">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I9">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J9">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +998,22 @@
         <v>12.561996</v>
       </c>
       <c r="O9">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P9">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q9">
-        <v>1.594390864757333</v>
+        <v>0.6078652159986667</v>
       </c>
       <c r="R9">
-        <v>14.349517782816</v>
+        <v>5.470786943988</v>
       </c>
       <c r="S9">
-        <v>0.0519914894361562</v>
+        <v>0.01851154247624503</v>
       </c>
       <c r="T9">
-        <v>0.0519914894361562</v>
+        <v>0.01851154247624503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H10">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I10">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J10">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N10">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O10">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P10">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q10">
-        <v>0.09919076547288888</v>
+        <v>0.03177265364644444</v>
       </c>
       <c r="R10">
-        <v>0.8927168892559999</v>
+        <v>0.285953882818</v>
       </c>
       <c r="S10">
-        <v>0.003234511529914502</v>
+        <v>0.0009675842803291247</v>
       </c>
       <c r="T10">
-        <v>0.003234511529914502</v>
+        <v>0.0009675842803291248</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1083,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1095,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H11">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I11">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J11">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N11">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O11">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P11">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q11">
-        <v>0.01940799830566667</v>
+        <v>0.04585064863966667</v>
       </c>
       <c r="R11">
-        <v>0.174671984751</v>
+        <v>0.412655837757</v>
       </c>
       <c r="S11">
-        <v>0.0006328753890844598</v>
+        <v>0.001396306627715375</v>
       </c>
       <c r="T11">
-        <v>0.0006328753890844599</v>
+        <v>0.001396306627715375</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1145,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1157,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H12">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I12">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J12">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1184,22 @@
         <v>12.561996</v>
       </c>
       <c r="O12">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P12">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q12">
-        <v>2.076705909622667</v>
+        <v>2.644552793697334</v>
       </c>
       <c r="R12">
-        <v>18.690353186604</v>
+        <v>23.800975143276</v>
       </c>
       <c r="S12">
-        <v>0.06771930004665652</v>
+        <v>0.08053553663335135</v>
       </c>
       <c r="T12">
-        <v>0.06771930004665654</v>
+        <v>0.08053553663335135</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,10 +1207,10 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1219,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H13">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I13">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J13">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1240,214 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N13">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O13">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P13">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q13">
-        <v>0.1291967066487778</v>
+        <v>0.1382287680762223</v>
       </c>
       <c r="R13">
-        <v>1.162770359839</v>
+        <v>1.244058912686</v>
       </c>
       <c r="S13">
-        <v>0.004212975222947259</v>
+        <v>0.004209531396656893</v>
       </c>
       <c r="T13">
-        <v>0.004212975222947259</v>
+        <v>0.004209531396656892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H14">
+        <v>1.697065</v>
+      </c>
+      <c r="I14">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J14">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.07259900000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.217797</v>
+      </c>
+      <c r="O14">
+        <v>0.0162094769588191</v>
+      </c>
+      <c r="P14">
+        <v>0.0162094769588191</v>
+      </c>
+      <c r="Q14">
+        <v>0.04106840731166667</v>
+      </c>
+      <c r="R14">
+        <v>0.369615665805</v>
+      </c>
+      <c r="S14">
+        <v>0.001250671277731603</v>
+      </c>
+      <c r="T14">
+        <v>0.001250671277731603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H15">
+        <v>1.697065</v>
+      </c>
+      <c r="I15">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J15">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.187332</v>
+      </c>
+      <c r="N15">
+        <v>12.561996</v>
+      </c>
+      <c r="O15">
+        <v>0.9349228167457665</v>
+      </c>
+      <c r="P15">
+        <v>0.9349228167457664</v>
+      </c>
+      <c r="Q15">
+        <v>2.368724860193333</v>
+      </c>
+      <c r="R15">
+        <v>21.31852374174</v>
+      </c>
+      <c r="S15">
+        <v>0.07213564736052051</v>
+      </c>
+      <c r="T15">
+        <v>0.07213564736052053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H16">
+        <v>1.697065</v>
+      </c>
+      <c r="I16">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J16">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2188686666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.656606</v>
+      </c>
+      <c r="O16">
+        <v>0.04886770629541442</v>
+      </c>
+      <c r="P16">
+        <v>0.04886770629541441</v>
+      </c>
+      <c r="Q16">
+        <v>0.1238114512655555</v>
+      </c>
+      <c r="R16">
+        <v>1.11430306139</v>
+      </c>
+      <c r="S16">
+        <v>0.003770475557451374</v>
+      </c>
+      <c r="T16">
+        <v>0.003770475557451375</v>
       </c>
     </row>
   </sheetData>
